--- a/TestCaseIRCTC.xlsx
+++ b/TestCaseIRCTC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -884,6 +884,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,26 +914,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1320,9 @@
       <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <v>44828</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
@@ -1347,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E9"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,20 +1373,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -1481,7 +1483,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -1493,7 +1495,7 @@
       <c r="D3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="36" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="33" t="s">
@@ -1517,8 +1519,8 @@
       <c r="L3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="35">
-        <v>43529</v>
+      <c r="M3" s="41">
+        <v>44260</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -1535,11 +1537,11 @@
       <c r="Z3" s="25"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -1565,11 +1567,11 @@
       <c r="Z4" s="26"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -1595,11 +1597,11 @@
       <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="44"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -1625,11 +1627,11 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -1655,11 +1657,11 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="44"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -1685,11 +1687,11 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="44"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -1715,7 +1717,7 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -1727,7 +1729,7 @@
       <c r="D10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="36" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="33" t="s">
@@ -1751,8 +1753,8 @@
       <c r="L10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="35">
-        <v>43529</v>
+      <c r="M10" s="41">
+        <v>44260</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1769,11 +1771,11 @@
       <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -1798,12 +1800,12 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="26"/>
     </row>
-    <row r="12" spans="1:26" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:26" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="44"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -1829,7 +1831,7 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -1841,7 +1843,7 @@
       <c r="D13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="36" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -1865,8 +1867,8 @@
       <c r="L13" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="35">
-        <v>43529</v>
+      <c r="M13" s="41">
+        <v>44260</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -1883,11 +1885,11 @@
       <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:26" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1913,21 +1915,21 @@
       <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:26" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
@@ -1944,27 +1946,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="I3:I9"/>
     <mergeCell ref="L3:L9"/>
     <mergeCell ref="M3:M9"/>
     <mergeCell ref="A1:L1"/>
@@ -1981,6 +1962,27 @@
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
